--- a/csvs/logs.09282017/sift_flann_knn.xlsx
+++ b/csvs/logs.09282017/sift_flann_knn.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-4500" yWindow="-23540" windowWidth="38400" windowHeight="23540" tabRatio="500"/>
+    <workbookView xWindow="-4080" yWindow="-22880" windowWidth="18860" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sift_flann_knn_with_match" sheetId="1" r:id="rId1"/>
@@ -154,9 +154,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.110608837211931"/>
+          <c:x val="0.137004836324393"/>
           <c:y val="0.028039614933567"/>
-          <c:w val="0.843409171843469"/>
+          <c:w val="0.821074223590071"/>
           <c:h val="0.77450545768522"/>
         </c:manualLayout>
       </c:layout>
@@ -5353,16 +5353,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1524051360"/>
-        <c:axId val="-1487508256"/>
+        <c:axId val="-336457808"/>
+        <c:axId val="-337267760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1524051360"/>
+        <c:axId val="-336457808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -5462,14 +5476,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1487508256"/>
+        <c:crossAx val="-337267760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1487508256"/>
+        <c:axId val="-337267760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.45"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5579,7 +5594,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1524051360"/>
+        <c:crossAx val="-336457808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5597,9 +5612,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.188083273510409"/>
+          <c:x val="0.0967127383188776"/>
           <c:y val="0.918375581530214"/>
-          <c:w val="0.619127018670405"/>
+          <c:w val="0.864812342619609"/>
           <c:h val="0.0672939425878852"/>
         </c:manualLayout>
       </c:layout>
@@ -6229,15 +6244,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
+      <xdr:colOff>806450</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6524,8 +6539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L105"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/csvs/logs.09282017/sift_flann_knn.xlsx
+++ b/csvs/logs.09282017/sift_flann_knn.xlsx
@@ -5353,11 +5353,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-336457808"/>
-        <c:axId val="-337267760"/>
+        <c:axId val="1945008048"/>
+        <c:axId val="1945012320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-336457808"/>
+        <c:axId val="1945008048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5476,12 +5476,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-337267760"/>
+        <c:crossAx val="1945012320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-337267760"/>
+        <c:axId val="1945012320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.45"/>
@@ -5594,7 +5594,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-336457808"/>
+        <c:crossAx val="1945008048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6244,15 +6244,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>806450</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
